--- a/Mechanical_insect/智能机械虫质量监控平台需求规划.xlsx
+++ b/Mechanical_insect/智能机械虫质量监控平台需求规划.xlsx
@@ -205,8 +205,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,6 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -232,7 +240,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,14 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,17 +331,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,76 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -376,192 +376,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -570,26 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,41 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,163 +623,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,7 +1166,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A1" sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1163,259 +1181,435 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="42.75" spans="3:4">
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="42.75" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="57" spans="3:4">
-      <c r="C3" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="57" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="28.5" spans="3:4">
-      <c r="C4" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="28.5" spans="3:4">
-      <c r="C12" s="1" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="1" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="1" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="1" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="3:6">
-      <c r="C19" s="1" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" ht="27" customHeight="1" spans="3:7">
-      <c r="C20" s="1" t="s">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" ht="27" customHeight="1" spans="7:7">
-      <c r="G21" s="1" t="s">
+    <row r="21" ht="27" customHeight="1" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" ht="27" customHeight="1" spans="3:6">
-      <c r="C22" s="1" t="s">
+    <row r="22" ht="27" customHeight="1" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" ht="28.5" spans="3:4">
-      <c r="C23" s="1" t="s">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" ht="28.5" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="1" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="1" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="1" t="s">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="1" t="s">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="1" t="s">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="1" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
